--- a/file.xlsx
+++ b/file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -89,6 +89,63 @@
   </si>
   <si>
     <t>13399</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/92808024/metal-engraved-buckle-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>29313</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/223358696/dog-collar-personalized-leather?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/120236853/buckle-martingale-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>12566</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/94515871/personalized-lazer-engraved-metal-buckle?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>11822</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/116930154/custom-dog-tag-unique-pet-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>11750</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/129117962/custom-dog-tag-unique-pet-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>10462</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/212209847/dog-collar-personalized-engraved-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>10310</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/496376420/hand-stamped-pet-id-tag-personalized?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>9215</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/502895555/dog-collar-watercolor-floral-cotton?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/271166333/dog-collar-leather-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>8735</t>
   </si>
 </sst>
 </file>
@@ -96,7 +153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +176,13 @@
       <sz val="11.0"/>
       <color indexed="48"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +202,16 @@
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -230,11 +300,47 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -257,13 +363,22 @@
     <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true">
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true">
+    <xf applyBorder="true" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -555,94 +670,94 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" ht="60.0" customHeight="true">
-      <c r="A1" t="s" s="8">
+      <c r="A1" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="B1" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="C1" t="s" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s" s="10">
+      <c r="A2" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="13">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="10">
-        <v>20</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>18</v>
+      <c r="A4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>16</v>
+      <c r="A5" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>14</v>
+      <c r="A6" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>12</v>
+      <c r="A7" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>10</v>
+      <c r="A8" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>8</v>
+      <c r="A9" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>6</v>
+      <c r="A10" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>4</v>
+      <c r="A11" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{613FE9D8-FECB-4865-AD3C-0AB80A14F797}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E60131-CB9D-44F6-9CB8-429990EF59C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="197">
   <si>
     <t>URL</t>
   </si>
@@ -31,63 +31,9 @@
     <t>Top 100</t>
   </si>
   <si>
-    <t>https://www.etsy.com/listing/150590066/dog-collar-batman-inspired-by-dogs-art?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/83408961/small-leather-dog-collar-personalized?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/272868284/cat-collar-cat-collar-breakaway-leather?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/551439146/toy-teacup-dwarf-dog-sweater-by?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/569633779/toy-teacup-dwarf-crochet-dog-sweater-cl?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/62207665/the-original-hello-my-name-is-silver-pet?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/572282399/soft-toy-teacup-x-small-dog-sweater-cl?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/117466892/any-dog-leash-made-from-any-fabric-in?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/listing/112080107/dog-tag-dog-id-tag-dog-name-tag-hand?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
     <t>6799</t>
   </si>
   <si>
-    <t>https://www.etsy.com/listing/223358696/dog-collar-personalized-leather?utm_source=sale&amp;utm_medium=api&amp;utm_campaign=api</t>
-  </si>
-  <si>
     <t>13399</t>
   </si>
   <si>
@@ -109,9 +55,6 @@
     <t>https://www.etsy.com/listing/94515871/personalized-lazer-engraved-metal-buckle?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
   </si>
   <si>
-    <t>11822</t>
-  </si>
-  <si>
     <t>https://www.etsy.com/listing/116930154/custom-dog-tag-unique-pet-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
   </si>
   <si>
@@ -121,9 +64,6 @@
     <t>https://www.etsy.com/listing/129117962/custom-dog-tag-unique-pet-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
   </si>
   <si>
-    <t>10462</t>
-  </si>
-  <si>
     <t>https://www.etsy.com/listing/212209847/dog-collar-personalized-engraved-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
   </si>
   <si>
@@ -146,14 +86,538 @@
   </si>
   <si>
     <t>8735</t>
+  </si>
+  <si>
+    <t>11821</t>
+  </si>
+  <si>
+    <t>10461</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/481416201/personalized-laser-engraved-metal-buckle?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>8539</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/486415757/his-hers-dog-key-hanger-key-holder-leash?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>7975</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/453091762/dog-tags-for-dogs-personalized-dog-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>7167</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/170914740/engraved-english-bridle-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/272431132/not-all-who-wander-are-lost-dog-tag-for?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>6847</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/112080107/dog-tag-dog-id-tag-dog-name-tag-hand?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/212589471/im-lost-custom-pet-id-tag-personalize-it?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/503378290/marble-dog-collar-hexagon-purple-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>6560</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/225496393/color-addition-only-to-etched-tag-pet?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>6416</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/529323685/dog-collar-whitegray-marble-print-cotton?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>6148</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/235655086/warner-cumberland-brand-leather-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>6081</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/279928414/copper-bone-dog-tag-for-dogs?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5997</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/470341055/personalized-leather-dog-collar-custom?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5841</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/80344597/heavy-duty-webbing-dog-collar-with-laser?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5814</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/257845657/leather-dog-collar-personalized-brown?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5715</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/267906055/adjustable-dog-harness-marble?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5705</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/213897687/personalized-dog-collar-all-metal-buckle?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5665</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/452636712/funny-personalized-dog-tags-for-dogs-got?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5654</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/156122527/leather-dog-collar-with-laser-engraved?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5488</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/477455191/leather-dog-collar-personalized-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5151</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/527489173/wild-indian-dog-bandana-aztec-tie-on-bow?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5097</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/157024398/personalized-name-plate-dog-collar-metal?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>5070</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/241209399/dog-id-tag-the-axel-hand-stamped-dog-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4780</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/178697045/dog-collar-cat-collar-rolled-leather-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4779</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/108058735/personalized-velvet-dog-collar-20-colors?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4773</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/560299159/personalized-pet-tags-really-ugly-crying?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4642</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/279367442/floral-dog-collar-embroidered-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4632</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/183739563/personalized-camo-dog-collar-made-with?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4618</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/155161652/collar-bowties-this-is-a-bowtie-only?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4540</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/195500871/cat-tag-pet-id-engraved-cat-id-tag-cat?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4395</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/571620323/engraved-gold-buckle-dog-collar-w-rifle?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4312</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/267218976/pet-id-tag-custom-dog-tag-dog-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4199</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/95129543/dog-tag-dog-id-tag-pet-tag-dog-name-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4173</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/448669082/watercolor-flowers-dog-tag-double-sided?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>4168</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/569459021/dog-collar-rose-gold-metallic-print-on?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3997</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/550169767/personalized-pet-tags-really-ugly-crying?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3854</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/269088976/girl-dog-collar-pink-floral-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3829</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/553811223/the-bailey-collar-finally-available-in?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3734</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/162216564/buy-2-get-1-free-dog-collars-special?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3721</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/240282633/summer-bright-personalized-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3558</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/528025862/the-monochrome-rope-dog-leash-extra-soft?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3557</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/250038975/personalized-pet-id-tag-custom-pet-id?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3538</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/247146912/custom-hand-stamped-dog-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3498</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/95360727/dog-tag-pet-tag-dog-tags-dog-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/262616882/lp-inspired-dog-collar-bow-not-included?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3425</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/485238394/leather-dog-collar-free-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3401</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/279858086/copper-bar-dog-tag-for-dogs-pet-id-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3376</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/192767884/dog-collar-rolled-leather-optional-id?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3297</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/224060021/double-sided-personalized-pet-tag?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3289</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/265114519/leather-dog-collar-personalized-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3247</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/290697483/custom-pet-id-tag-dog-tag-pet-gift-fun?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/226014844/rope-dog-leash-cotton-natural-coloring?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3134</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/473694822/cactus-dog-collar-your-choice-of-metal?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/94642551/stainless-dog-tag-quality-pet-tag-hand?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3085</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/532524273/dog-collar-leather-dog-collar-free-id?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3073</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/109223106/custom-dog-collar-name-only-embroidery?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/114042842/custom-pet-tag-personalized-dog-tag-hand?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/550714465/blue-floral-dog-collar-embroidered-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/449093166/custom-dog-leashes-made-to-order?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/229278178/dog-tag-dog-tag-for-dogs-personalized?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/88372731/personalized-dog-collar-tag-bottle?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2914</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/221680742/personalized-pet-tag-personalized-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2905</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/548280143/cat-collar-personalized-cat-collar-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/479411859/dog-collar-personalized-dog-collar-pet?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/186814225/engraved-dog-collar-personalized-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2822</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/256179939/hand-stamped-4-sided-bar-dog-tag-in?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2771</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/234904979/adjustable-dog-harness-no-choke?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/175920464/pet-id-tag-personalized-pet-id-tag-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/535436847/dog-collar-leather-dog-collar-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/474455928/adjustable-collar-free-id-tag-handmade?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2678</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/187098377/dog-cooling-bandana-blue-batik-fabric?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2666</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/481057723/pet-collar-dog-collar-personalized-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2655</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/473152029/personalized-leather-dog-collar-custom?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2637</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/208712317/dog-tag-pet-tag-custom-dog-tag-pet-id?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2604</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/77441712/aztec-dog-collar-dog-collar-dog-collars?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2593</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/569313903/pet-id-tag-custom-pet-tag-personalized?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2589</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/464542299/engrave-my-metal-buckle-add-on-upgrade?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2574</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/265950342/toy-teacup-dwarf-crochet-dog-sweater-cl?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2516</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/285805179/pet-id-tag-dog-tag-for-dogs-dog-tag-with?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/499502114/personalized-leather-dog-collar-custom?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2483</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/468652366/dog-tag-personalized-dog-tag-custom-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2459</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/217939220/toy-teacup-dwarf-dog-sweater-by?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/84255089/personalized-custom-made-embroidered-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2443</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/106620488/stylish-furrberry-tan-plaid-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2437</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/161081778/dog-collar-embroidered-style-fabric-dog?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/91992708/the-molly-dog-collar?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/259164227/harris-tweed-dog-collars-lavender-tweed?utm_source=sale1&amp;utm_medium=api&amp;utm_campaign=api</t>
+  </si>
+  <si>
+    <t>2400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,18 +635,8 @@
       <color indexed="48"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,24 +648,8 @@
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -264,129 +702,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="true" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,10 +748,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -441,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -476,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,21 +915,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -601,7 +946,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -653,1114 +998,1474 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="60.0" customHeight="true">
-      <c r="A1" t="s" s="11">
+    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="11">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="11">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="12">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="13">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="12">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="12">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="12">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="12">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="12">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s" s="13">
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s" s="13">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="13">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s" s="13">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
-      <c r="B208" s="3"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-      <c r="B209" s="3"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
-      <c r="B210" s="3"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
-      <c r="B211" s="3"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
-      <c r="B212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
-      <c r="B213" s="3"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
-      <c r="B214" s="3"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
-      <c r="B215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
-      <c r="B216" s="3"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
-      <c r="B217" s="3"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
-      <c r="B219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
-      <c r="B220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
-      <c r="B221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
-      <c r="B222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
-      <c r="B223" s="3"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
-      <c r="B224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
-      <c r="B225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
-      <c r="B226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
-      <c r="B227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
-      <c r="B228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
-      <c r="B229" s="3"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
-      <c r="B231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
-      <c r="B232" s="3"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
-      <c r="B233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
-      <c r="B234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
-      <c r="B235" s="3"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
-      <c r="B236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
-      <c r="B237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
-      <c r="B238" s="3"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
-      <c r="B239" s="3"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
-      <c r="B240" s="3"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
-      <c r="B241" s="3"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
-      <c r="B242" s="3"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
-      <c r="B243" s="3"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
-      <c r="B244" s="3"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
-      <c r="B245" s="3"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
-      <c r="B246" s="3"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
-      <c r="B247" s="3"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
-      <c r="B248" s="3"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
-      <c r="B249" s="3"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
-      <c r="B250" s="3"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
-      <c r="B251" s="3"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
-      <c r="B252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
-      <c r="B254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
-      <c r="B255" s="4"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
-      <c r="B256" s="4"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
-      <c r="B257" s="4"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
-      <c r="B258" s="4"/>
+      <c r="B258" s="3"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
-      <c r="B259" s="4"/>
+      <c r="B259" s="3"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
-      <c r="B260" s="4"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
-      <c r="B261" s="4"/>
+      <c r="B261" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>